--- a/experiments/00_general/results/statistics/stats_cortisol_raw_condition.xlsx
+++ b/experiments/00_general/results/statistics/stats_cortisol_raw_condition.xlsx
@@ -185,85 +185,85 @@
     <t>two-sided</t>
   </si>
   <si>
-    <t>7.541e+20</t>
-  </si>
-  <si>
-    <t>7.402e+24</t>
-  </si>
-  <si>
-    <t>1.013e+17</t>
-  </si>
-  <si>
-    <t>2.657e+09</t>
-  </si>
-  <si>
-    <t>5.788e+10</t>
-  </si>
-  <si>
-    <t>1258.985</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>0.142</t>
-  </si>
-  <si>
-    <t>8120.352</t>
-  </si>
-  <si>
-    <t>1.549e+09</t>
+    <t>2.32e+21</t>
+  </si>
+  <si>
+    <t>4.067e+25</t>
+  </si>
+  <si>
+    <t>2.359e+17</t>
+  </si>
+  <si>
+    <t>3.177e+09</t>
+  </si>
+  <si>
+    <t>1.05e+11</t>
+  </si>
+  <si>
+    <t>1372.761</t>
+  </si>
+  <si>
+    <t>0.123</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>2.076e+04</t>
+  </si>
+  <si>
+    <t>5.4e+09</t>
+  </si>
+  <si>
+    <t>0.199</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.535</t>
   </si>
   <si>
     <t>0.201</t>
   </si>
   <si>
-    <t>0.401</t>
-  </si>
-  <si>
-    <t>0.583</t>
-  </si>
-  <si>
-    <t>0.205</t>
-  </si>
-  <si>
-    <t>0.911</t>
-  </si>
-  <si>
-    <t>1.175</t>
-  </si>
-  <si>
-    <t>0.224</t>
-  </si>
-  <si>
-    <t>0.278</t>
-  </si>
-  <si>
-    <t>0.567</t>
-  </si>
-  <si>
-    <t>0.389</t>
-  </si>
-  <si>
-    <t>0.374</t>
-  </si>
-  <si>
-    <t>0.202</t>
-  </si>
-  <si>
-    <t>2.068</t>
-  </si>
-  <si>
-    <t>5.874</t>
-  </si>
-  <si>
-    <t>0.279</t>
-  </si>
-  <si>
-    <t>2.196</t>
-  </si>
-  <si>
-    <t>19.823</t>
+    <t>0.954</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>0.219</t>
+  </si>
+  <si>
+    <t>0.283</t>
+  </si>
+  <si>
+    <t>0.575</t>
+  </si>
+  <si>
+    <t>0.208</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.342</t>
+  </si>
+  <si>
+    <t>2.394</t>
+  </si>
+  <si>
+    <t>5.129</t>
+  </si>
+  <si>
+    <t>0.248</t>
+  </si>
+  <si>
+    <t>2.632</t>
+  </si>
+  <si>
+    <t>18.356</t>
   </si>
   <si>
     <t>Pairwise t-Tests</t>
@@ -717,10 +717,10 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>0.9422</v>
+        <v>0.9425</v>
       </c>
       <c r="D3">
-        <v>0.031</v>
+        <v>0.0291</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -732,10 +732,10 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>0.9453</v>
+        <v>0.9487</v>
       </c>
       <c r="D4">
-        <v>0.0019</v>
+        <v>0.0025</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -764,10 +764,10 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>0.9294</v>
+        <v>0.9297</v>
       </c>
       <c r="D6">
-        <v>0.0111</v>
+        <v>0.0102</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -779,10 +779,10 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>0.9893</v>
+        <v>0.99</v>
       </c>
       <c r="D7">
-        <v>0.7518</v>
+        <v>0.7833</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -811,10 +811,10 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>0.9253</v>
+        <v>0.9233</v>
       </c>
       <c r="D9">
-        <v>0.008</v>
+        <v>0.0062</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>0.9856</v>
+        <v>0.9871</v>
       </c>
       <c r="D10">
-        <v>0.5107</v>
+        <v>0.5874</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -858,10 +858,10 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>0.9465</v>
+        <v>0.9436</v>
       </c>
       <c r="D12">
-        <v>0.0445</v>
+        <v>0.032</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>0.9787</v>
+        <v>0.9804</v>
       </c>
       <c r="D13">
-        <v>0.2034</v>
+        <v>0.2425</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -905,13 +905,13 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>0.9537</v>
+        <v>0.9488</v>
       </c>
       <c r="D15">
-        <v>0.08169999999999999</v>
+        <v>0.0496</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -920,10 +920,10 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>0.9346</v>
+        <v>0.9382</v>
       </c>
       <c r="D16">
-        <v>0.0005</v>
+        <v>0.0007</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>24</v>
       </c>
       <c r="C3">
-        <v>0.5484</v>
+        <v>0.4521</v>
       </c>
       <c r="D3">
-        <v>0.5789</v>
+        <v>0.6371</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -1009,10 +1009,10 @@
         <v>24</v>
       </c>
       <c r="C4">
-        <v>1.1683</v>
+        <v>1.259</v>
       </c>
       <c r="D4">
-        <v>0.3135</v>
+        <v>0.2866</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1026,10 +1026,10 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>0.5827</v>
+        <v>0.4656</v>
       </c>
       <c r="D5">
-        <v>0.5596</v>
+        <v>0.6286</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1043,10 +1043,10 @@
         <v>24</v>
       </c>
       <c r="C6">
-        <v>3.6029</v>
+        <v>3.6184</v>
       </c>
       <c r="D6">
-        <v>0.0294</v>
+        <v>0.029</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>4.2799</v>
+        <v>4.4382</v>
       </c>
       <c r="D7">
-        <v>0.0154</v>
+        <v>0.0133</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -1136,25 +1136,25 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>249.7104</v>
+        <v>241.2995</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F3">
-        <v>124.8552</v>
+        <v>120.6497</v>
       </c>
       <c r="G3">
-        <v>1.2968</v>
+        <v>1.265</v>
       </c>
       <c r="H3">
-        <v>0.2762</v>
+        <v>0.285</v>
       </c>
       <c r="J3">
-        <v>0.0157</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1165,19 +1165,19 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>4008.1461</v>
+        <v>4063.2874</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="F4">
-        <v>1002.0365</v>
+        <v>1015.8218</v>
       </c>
       <c r="G4">
-        <v>71.78959999999999</v>
+        <v>73.4796</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3058</v>
+        <v>0.3068</v>
       </c>
       <c r="K4">
-        <v>0.4905</v>
+        <v>0.4913</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0978</v>
+        <v>0.1004</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1209,25 +1209,25 @@
         <v>39</v>
       </c>
       <c r="C5">
-        <v>813.6783</v>
+        <v>816.9880000000001</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="F5">
-        <v>101.7098</v>
+        <v>102.1235</v>
       </c>
       <c r="G5">
-        <v>7.2869</v>
+        <v>7.3871</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08210000000000001</v>
+        <v>0.08169999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1312,10 +1312,10 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>-11.9104</v>
+        <v>-12.0498</v>
       </c>
       <c r="I3">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J3" t="s">
         <v>54</v>
@@ -1327,7 +1327,7 @@
         <v>55</v>
       </c>
       <c r="M3">
-        <v>-0.8233</v>
+        <v>-0.8262</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>-13.3572</v>
+        <v>-13.5737</v>
       </c>
       <c r="I4">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J4" t="s">
         <v>54</v>
@@ -1371,7 +1371,7 @@
         <v>56</v>
       </c>
       <c r="M4">
-        <v>-1.2209</v>
+        <v>-1.2263</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1400,10 +1400,10 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>-10.4929</v>
+        <v>-10.6019</v>
       </c>
       <c r="I5">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J5" t="s">
         <v>54</v>
@@ -1415,7 +1415,7 @@
         <v>57</v>
       </c>
       <c r="M5">
-        <v>-1.0977</v>
+        <v>-1.097</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>-7.5545</v>
+        <v>-7.5767</v>
       </c>
       <c r="I6">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J6" t="s">
         <v>54</v>
@@ -1459,7 +1459,7 @@
         <v>58</v>
       </c>
       <c r="M6">
-        <v>-0.8323</v>
+        <v>-0.8264</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>-8.1014</v>
+        <v>-8.192399999999999</v>
       </c>
       <c r="I7">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J7" t="s">
         <v>54</v>
@@ -1503,7 +1503,7 @@
         <v>59</v>
       </c>
       <c r="M7">
-        <v>-0.4315</v>
+        <v>-0.4373</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>-4.547</v>
+        <v>-4.5678</v>
       </c>
       <c r="I8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J8" t="s">
         <v>54</v>
@@ -1547,7 +1547,7 @@
         <v>60</v>
       </c>
       <c r="M8">
-        <v>-0.3599</v>
+        <v>-0.3596</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>-0.9123</v>
+        <v>-0.8544</v>
       </c>
       <c r="I9">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J9" t="s">
         <v>54</v>
       </c>
       <c r="K9">
-        <v>0.363</v>
+        <v>0.3941</v>
       </c>
       <c r="L9" t="s">
         <v>61</v>
       </c>
       <c r="M9">
-        <v>-0.0843</v>
+        <v>-0.0784</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1620,22 +1620,22 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1.0042</v>
+        <v>1.1264</v>
       </c>
       <c r="I10">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J10" t="s">
         <v>54</v>
       </c>
       <c r="K10">
-        <v>0.3167</v>
+        <v>0.2616</v>
       </c>
       <c r="L10" t="s">
         <v>62</v>
       </c>
       <c r="M10">
-        <v>0.0498</v>
+        <v>0.0552</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1664,10 +1664,10 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>4.9983</v>
+        <v>5.212</v>
       </c>
       <c r="I11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J11" t="s">
         <v>54</v>
@@ -1679,7 +1679,7 @@
         <v>63</v>
       </c>
       <c r="M11">
-        <v>0.3229</v>
+        <v>0.3334</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1708,10 +1708,10 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>7.4568</v>
+        <v>7.6716</v>
       </c>
       <c r="I12">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J12" t="s">
         <v>54</v>
@@ -1723,7 +1723,7 @@
         <v>64</v>
       </c>
       <c r="M12">
-        <v>0.2611</v>
+        <v>0.2659</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1752,22 +1752,22 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0.08740000000000001</v>
+        <v>-0.0179</v>
       </c>
       <c r="I13">
-        <v>68.6596</v>
+        <v>70.71769999999999</v>
       </c>
       <c r="J13" t="s">
         <v>54</v>
       </c>
       <c r="K13">
-        <v>0.9306</v>
+        <v>0.9858</v>
       </c>
       <c r="L13" t="s">
         <v>65</v>
       </c>
       <c r="M13">
-        <v>0.0178</v>
+        <v>-0.0036</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1796,22 +1796,22 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>-1.148</v>
+        <v>-1.1976</v>
       </c>
       <c r="I14">
-        <v>84</v>
+        <v>84.76479999999999</v>
       </c>
       <c r="J14" t="s">
         <v>54</v>
       </c>
       <c r="K14">
-        <v>0.2542</v>
+        <v>0.2344</v>
       </c>
       <c r="L14" t="s">
         <v>66</v>
       </c>
       <c r="M14">
-        <v>-0.2454</v>
+        <v>-0.2543</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1840,22 +1840,22 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>-1.5445</v>
+        <v>-1.483</v>
       </c>
       <c r="I15">
-        <v>73.46850000000001</v>
+        <v>72.74939999999999</v>
       </c>
       <c r="J15" t="s">
         <v>54</v>
       </c>
       <c r="K15">
-        <v>0.1268</v>
+        <v>0.1424</v>
       </c>
       <c r="L15" t="s">
         <v>67</v>
       </c>
       <c r="M15">
-        <v>-0.307</v>
+        <v>-0.2943</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1884,22 +1884,22 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>0.2198</v>
+        <v>0.1688</v>
       </c>
       <c r="I16">
-        <v>76.2739</v>
+        <v>78.3685</v>
       </c>
       <c r="J16" t="s">
         <v>54</v>
       </c>
       <c r="K16">
-        <v>0.8266</v>
+        <v>0.8663999999999999</v>
       </c>
       <c r="L16" t="s">
         <v>68</v>
       </c>
       <c r="M16">
-        <v>0.0431</v>
+        <v>0.0327</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1928,22 +1928,22 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>1.7942</v>
+        <v>1.8261</v>
       </c>
       <c r="I17">
-        <v>84</v>
+        <v>82.18899999999999</v>
       </c>
       <c r="J17" t="s">
         <v>54</v>
       </c>
       <c r="K17">
-        <v>0.0764</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="L17" t="s">
         <v>69</v>
       </c>
       <c r="M17">
-        <v>0.3835</v>
+        <v>0.3872</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1972,22 +1972,22 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>1.9925</v>
+        <v>2.079</v>
       </c>
       <c r="I18">
-        <v>92.28919999999999</v>
+        <v>91.1704</v>
       </c>
       <c r="J18" t="s">
         <v>54</v>
       </c>
       <c r="K18">
-        <v>0.0493</v>
+        <v>0.0404</v>
       </c>
       <c r="L18" t="s">
         <v>70</v>
       </c>
       <c r="M18">
-        <v>0.3653</v>
+        <v>0.3801</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -2016,22 +2016,22 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>-0.4944</v>
+        <v>-0.472</v>
       </c>
       <c r="I19">
-        <v>67.5801</v>
+        <v>69.0766</v>
       </c>
       <c r="J19" t="s">
         <v>54</v>
       </c>
       <c r="K19">
-        <v>0.6227</v>
+        <v>0.6384</v>
       </c>
       <c r="L19" t="s">
         <v>71</v>
       </c>
       <c r="M19">
-        <v>-0.1014</v>
+        <v>-0.09569999999999999</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -2060,22 +2060,22 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>0.6909999999999999</v>
+        <v>0.7305</v>
       </c>
       <c r="I20">
-        <v>84</v>
+        <v>80.7851</v>
       </c>
       <c r="J20" t="s">
         <v>54</v>
       </c>
       <c r="K20">
-        <v>0.4914</v>
+        <v>0.4672</v>
       </c>
       <c r="L20" t="s">
         <v>72</v>
       </c>
       <c r="M20">
-        <v>0.1477</v>
+        <v>0.1548</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -2104,22 +2104,22 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>1.5248</v>
+        <v>1.5364</v>
       </c>
       <c r="I21">
-        <v>84.0587</v>
+        <v>82.5003</v>
       </c>
       <c r="J21" t="s">
         <v>54</v>
       </c>
       <c r="K21">
-        <v>0.1311</v>
+        <v>0.1283</v>
       </c>
       <c r="L21" t="s">
         <v>73</v>
       </c>
       <c r="M21">
-        <v>0.2889</v>
+        <v>0.2911</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -2148,22 +2148,22 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>-0.2171</v>
+        <v>-0.3232</v>
       </c>
       <c r="I22">
-        <v>70.1063</v>
+        <v>72.54730000000001</v>
       </c>
       <c r="J22" t="s">
         <v>54</v>
       </c>
       <c r="K22">
-        <v>0.8288</v>
+        <v>0.7474</v>
       </c>
       <c r="L22" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M22">
-        <v>-0.0439</v>
+        <v>-0.0644</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -2192,22 +2192,22 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>-1.1189</v>
+        <v>-1.1513</v>
       </c>
       <c r="I23">
-        <v>84</v>
+        <v>84.474</v>
       </c>
       <c r="J23" t="s">
         <v>54</v>
       </c>
       <c r="K23">
-        <v>0.2664</v>
+        <v>0.2528</v>
       </c>
       <c r="L23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M23">
-        <v>-0.2391</v>
+        <v>-0.2444</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2236,22 +2236,22 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>-1.178</v>
+        <v>-1.0951</v>
       </c>
       <c r="I24">
-        <v>76.84869999999999</v>
+        <v>76.40649999999999</v>
       </c>
       <c r="J24" t="s">
         <v>54</v>
       </c>
       <c r="K24">
-        <v>0.2424</v>
+        <v>0.2769</v>
       </c>
       <c r="L24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M24">
-        <v>-0.2304</v>
+        <v>-0.2134</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2280,22 +2280,22 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>0.1379</v>
+        <v>-0.0105</v>
       </c>
       <c r="I25">
-        <v>73.2349</v>
+        <v>75.43689999999999</v>
       </c>
       <c r="J25" t="s">
         <v>54</v>
       </c>
       <c r="K25">
-        <v>0.8907</v>
+        <v>0.9916</v>
       </c>
       <c r="L25" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="M25">
-        <v>0.0274</v>
+        <v>-0.0021</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2324,25 +2324,25 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>-2.2679</v>
+        <v>-2.344</v>
       </c>
       <c r="I26">
-        <v>84</v>
+        <v>81.9148</v>
       </c>
       <c r="J26" t="s">
         <v>54</v>
       </c>
       <c r="K26">
-        <v>0.0259</v>
+        <v>0.0215</v>
       </c>
       <c r="L26" t="s">
         <v>77</v>
       </c>
       <c r="M26">
-        <v>-0.4847</v>
+        <v>-0.4992</v>
       </c>
       <c r="N26">
-        <v>0.7252</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2368,25 +2368,25 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>-2.7663</v>
+        <v>-2.7094</v>
       </c>
       <c r="I27">
-        <v>64.67749999999999</v>
+        <v>64.2132</v>
       </c>
       <c r="J27" t="s">
         <v>54</v>
       </c>
       <c r="K27">
-        <v>0.0074</v>
+        <v>0.0086</v>
       </c>
       <c r="L27" t="s">
         <v>78</v>
       </c>
       <c r="M27">
-        <v>-0.5769</v>
+        <v>-0.5647</v>
       </c>
       <c r="N27">
-        <v>0.2072</v>
+        <v>0.2408</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2412,22 +2412,22 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>0.8557</v>
+        <v>0.7055</v>
       </c>
       <c r="I28">
-        <v>82.1151</v>
+        <v>83.7641</v>
       </c>
       <c r="J28" t="s">
         <v>54</v>
       </c>
       <c r="K28">
-        <v>0.3946</v>
+        <v>0.4824</v>
       </c>
       <c r="L28" t="s">
         <v>79</v>
       </c>
       <c r="M28">
-        <v>0.1635</v>
+        <v>0.1334</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2456,25 +2456,25 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>-2.299</v>
+        <v>-2.3912</v>
       </c>
       <c r="I29">
-        <v>84</v>
+        <v>77.61920000000001</v>
       </c>
       <c r="J29" t="s">
         <v>54</v>
       </c>
       <c r="K29">
-        <v>0.024</v>
+        <v>0.0192</v>
       </c>
       <c r="L29" t="s">
         <v>80</v>
       </c>
       <c r="M29">
-        <v>-0.4914</v>
+        <v>-0.5099</v>
       </c>
       <c r="N29">
-        <v>0.672</v>
+        <v>0.5376</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2500,25 +2500,25 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>-3.238</v>
+        <v>-3.2095</v>
       </c>
       <c r="I30">
-        <v>65.12430000000001</v>
+        <v>64.3586</v>
       </c>
       <c r="J30" t="s">
         <v>54</v>
       </c>
       <c r="K30">
-        <v>0.0019</v>
+        <v>0.0021</v>
       </c>
       <c r="L30" t="s">
         <v>81</v>
       </c>
       <c r="M30">
-        <v>-0.6734</v>
+        <v>-0.6684</v>
       </c>
       <c r="N30">
-        <v>0.0532</v>
+        <v>0.0588</v>
       </c>
     </row>
   </sheetData>
